--- a/src/test/resources/data/testdata.xlsx
+++ b/src/test/resources/data/testdata.xlsx
@@ -35,7 +35,7 @@
     <t>EmpID</t>
   </si>
   <si>
-    <t>gaurav</t>
+    <t>xyz</t>
   </si>
 </sst>
 </file>
@@ -356,7 +356,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,10 +377,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>102901</v>
       </c>
     </row>
   </sheetData>
